--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2251125.073181036</v>
+        <v>-2254176.317134876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858981</v>
+        <v>8656875.781858984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>185.504024444829</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>108.655255374288</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.98305834034</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>139.8939792152983</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>38.53074475532078</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>394.9680773239724</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>19.77778968381029</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.8865837051444</v>
+        <v>213.9356510080491</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>234.053309520197</v>
       </c>
       <c r="E8" t="n">
-        <v>376.0104255847223</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.65520119711181</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>133.5774755435153</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249729</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>80.18380255987267</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>47.59990604631791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>135.2594250626535</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>204.1149264341231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.3087334043725</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004763</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>240.2718937364983</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>120.470367422281</v>
+        <v>120.4703674222811</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>64.64750517800758</v>
       </c>
       <c r="S25" t="n">
-        <v>165.4843778394021</v>
+        <v>165.4843778394022</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.8020611972603</v>
       </c>
       <c r="U25" t="n">
-        <v>130.0410130141693</v>
+        <v>261.9271907135732</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541852</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>968.5489998370508</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C2" t="n">
-        <v>599.5864828966392</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D2" t="n">
-        <v>241.3207842898887</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E2" t="n">
-        <v>241.3207842898887</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>241.3207842898887</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>241.3207842898887</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2532.367618342364</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.288171876984</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1355.148839901173</v>
+        <v>1905.140074719376</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="C4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="D4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="E4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>2628.812227674551</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>2401.504040343153</v>
       </c>
       <c r="U4" t="n">
-        <v>195.250031532787</v>
+        <v>2401.504040343153</v>
       </c>
       <c r="V4" t="n">
-        <v>195.250031532787</v>
+        <v>2401.504040343153</v>
       </c>
       <c r="W4" t="n">
-        <v>195.250031532787</v>
+        <v>2401.504040343153</v>
       </c>
       <c r="X4" t="n">
-        <v>195.250031532787</v>
+        <v>2401.504040343153</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.250031532787</v>
+        <v>2180.711461199623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.829108994408</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.829108994408</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1172.829108994408</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>787.0408563961635</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>780.09535564696</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2677.17152568104</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2677.17152568104</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2677.17152568104</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2324.402870410926</v>
       </c>
       <c r="X5" t="n">
-        <v>1949.568281034341</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1559.428949058529</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>494.9102127870964</v>
+        <v>512.0323670265868</v>
       </c>
       <c r="V7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>494.9102127870964</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2112.324418312743</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C8" t="n">
-        <v>1743.361901372331</v>
+        <v>791.8900669637198</v>
       </c>
       <c r="D8" t="n">
-        <v>1743.361901372331</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.150255756841</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5045,22 +5045,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M11" t="n">
-        <v>2628.734306600803</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.2108419093689</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="C13" t="n">
-        <v>704.2840989361212</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5206,10 +5206,10 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.125669518531</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862233</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862233</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862233</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987877</v>
+        <v>1253.788099626701</v>
       </c>
       <c r="V13" t="n">
-        <v>1577.410141987877</v>
+        <v>999.1036114208144</v>
       </c>
       <c r="W13" t="n">
-        <v>1287.992971950916</v>
+        <v>709.6864413838539</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.003421052899</v>
+        <v>481.6968904858365</v>
       </c>
       <c r="Y13" t="n">
-        <v>839.2108419093689</v>
+        <v>260.9043113423064</v>
       </c>
     </row>
     <row r="14">
@@ -5255,37 +5255,37 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>901.0652231938166</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.099436442225</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
         <v>2877.428556330836</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4103109586945</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1593.833384729591</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1593.833384729591</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1593.833384729591</v>
       </c>
       <c r="W16" t="n">
-        <v>861.192441000242</v>
+        <v>1304.41621469263</v>
       </c>
       <c r="X16" t="n">
-        <v>633.2028901022246</v>
+        <v>1076.426663794613</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.4103109586945</v>
+        <v>855.6340846510827</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,22 +5595,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.8867116300491</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>192.8867116300491</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1819.717784223236</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1819.717784223236</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1819.717784223236</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1819.717784223236</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="X19" t="n">
-        <v>413.6792907735792</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.8867116300491</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551628</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972631</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1088.893283004718</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.42518767664</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903284</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232737</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679681</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320206</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454347</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710301</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862225</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689051</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258577</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.95764238422</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.95764238422</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W22" t="n">
-        <v>874.5404723472598</v>
+        <v>1237.193479906223</v>
       </c>
       <c r="X22" t="n">
-        <v>874.5404723472598</v>
+        <v>1009.203929008206</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.7478932037296</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.363334276588</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.9843498428012</v>
+        <v>483.804310553242</v>
       </c>
       <c r="C25" t="n">
-        <v>588.5781138765506</v>
+        <v>483.804310553242</v>
       </c>
       <c r="D25" t="n">
-        <v>462.9914214258711</v>
+        <v>483.804310553242</v>
       </c>
       <c r="E25" t="n">
-        <v>339.6082748051343</v>
+        <v>360.4211639325052</v>
       </c>
       <c r="F25" t="n">
-        <v>217.2482742688803</v>
+        <v>360.4211639325052</v>
       </c>
       <c r="G25" t="n">
-        <v>217.2482742688803</v>
+        <v>217.2482742688804</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>164.7254679124493</v>
       </c>
       <c r="K25" t="n">
-        <v>392.754451878445</v>
+        <v>392.7544518784451</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440605</v>
+        <v>733.3560513440607</v>
       </c>
       <c r="M25" t="n">
         <v>1101.554897960729</v>
@@ -6160,37 +6160,37 @@
         <v>1467.005075683713</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621245</v>
+        <v>1790.376475621246</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.025777072024</v>
+        <v>2047.025777072025</v>
       </c>
       <c r="Q25" t="n">
-        <v>2148.677874241658</v>
+        <v>2148.677874241659</v>
       </c>
       <c r="R25" t="n">
         <v>2083.377363960843</v>
       </c>
       <c r="S25" t="n">
-        <v>1916.221426749325</v>
+        <v>1916.221426749326</v>
       </c>
       <c r="T25" t="n">
-        <v>1916.221426749325</v>
+        <v>1800.259748772296</v>
       </c>
       <c r="U25" t="n">
-        <v>1784.866868149154</v>
+        <v>1535.686828859595</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.712326904924</v>
+        <v>1305.532287615365</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.825103829619</v>
+        <v>1040.645064540061</v>
       </c>
       <c r="X25" t="n">
-        <v>1086.365499893258</v>
+        <v>837.1854606036993</v>
       </c>
       <c r="Y25" t="n">
-        <v>890.1028677113845</v>
+        <v>640.9228284218254</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6409,22 +6409,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3940.136393265825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384026</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,31 +7096,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384012</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2322.475387565878</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2817.800993781637</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781637</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7798,19 +7798,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>20.70318561719023</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>116.5656919961588</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>285.6623071682324</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>248.8400772687158</v>
+        <v>67.53663776704138</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>19.79750571621088</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P23" t="n">
-        <v>146.071306538859</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-3.561914802320405e-14</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-7.950548412121567e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6.477575495759472</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>138.4187483195282</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>107.7930649833698</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.2769096264968</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>33.66934555511256</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.335964134055359</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.3651467162965</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>238.9230922902731</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>54.5096002687884</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>21.59472895491405</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.52324677756479</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983829</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>46.25110460009273</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.7411607669885</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779835</v>
+        <v>72.06777291779838</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>195.2643017841294</v>
+        <v>80.4622405868692</v>
       </c>
       <c r="U25" t="n">
-        <v>131.8861776994038</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35011.9091317327</v>
+        <v>35011.90913173267</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321415</v>
-      </c>
       <c r="E2" t="n">
-        <v>39708.17868869832</v>
+        <v>39708.17868869831</v>
       </c>
       <c r="F2" t="n">
         <v>39708.1786886983</v>
@@ -26329,31 +26329,31 @@
         <v>39708.1786886983</v>
       </c>
       <c r="H2" t="n">
-        <v>39708.17868869829</v>
+        <v>39708.1786886983</v>
       </c>
       <c r="I2" t="n">
         <v>40402.9371974122</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321421</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.082010949515582e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363434</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.1335735912</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709209</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018537</v>
+        <v>29610.46726018532</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975158</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975158</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975158</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975157</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
         <v>12448.5078997516</v>
@@ -26482,10 +26482,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>98425.10428372194</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-761070.9343374496</v>
+        <v>-761372.9433055236</v>
       </c>
       <c r="C6" t="n">
         <v>-234013.585962625</v>
@@ -26528,40 +26528,40 @@
         <v>-234013.585962625</v>
       </c>
       <c r="E6" t="n">
-        <v>-805672.3615555138</v>
+        <v>-805739.5570457396</v>
       </c>
       <c r="F6" t="n">
-        <v>-78294.94756210721</v>
+        <v>-78362.14305233302</v>
       </c>
       <c r="G6" t="n">
-        <v>-78294.94756210723</v>
+        <v>-78362.14305233302</v>
       </c>
       <c r="H6" t="n">
-        <v>-78294.94756210463</v>
+        <v>-78362.14305233302</v>
       </c>
       <c r="I6" t="n">
-        <v>-107060.3523401294</v>
+        <v>-107092.8099049169</v>
       </c>
       <c r="J6" t="n">
-        <v>-451087.6688340444</v>
+        <v>-451087.668834044</v>
       </c>
       <c r="K6" t="n">
-        <v>-74560.53526045282</v>
+        <v>-74560.53526045279</v>
       </c>
       <c r="L6" t="n">
-        <v>-74560.53526045283</v>
+        <v>-74560.53526045277</v>
       </c>
       <c r="M6" t="n">
         <v>-204202.8500993976</v>
       </c>
       <c r="N6" t="n">
-        <v>-93988.25325408457</v>
+        <v>-93988.2532540845</v>
       </c>
       <c r="O6" t="n">
-        <v>-74560.53526045279</v>
+        <v>-74560.53526045282</v>
       </c>
       <c r="P6" t="n">
-        <v>-74560.53526045282</v>
+        <v>-74560.5352604528</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="H3" t="n">
         <v>1089.776700593298</v>
       </c>
-      <c r="H3" t="n">
-        <v>1089.776700593295</v>
-      </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.170734645643584e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>376.2562661677211</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>256.748042338129</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>173.6147941946981</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18.81609269682264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>196.6705306738475</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>55.3952905368333</v>
+        <v>72.34622323392861</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>120.629732100486</v>
       </c>
       <c r="E8" t="n">
-        <v>5.919944487539453</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>90.76584682581944</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28278,13 +28278,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.602510716717613e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32084,10 +32084,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974794</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003791</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781674</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451114</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233582</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970232</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909881</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895875</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712186</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>465.217062384076</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O33" t="n">
-        <v>200.3460366764704</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>227.8611086463991</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>573.0050210301017</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934855</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226414</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>453.7569785515593</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35656,7 +35656,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>837.9641425811438</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35732,10 +35732,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O17" t="n">
-        <v>756.893078156935</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553986</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>475.3876201085407</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302242</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.648759824893</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509621</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908524</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636226</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152063</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597637</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013399</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P21" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306577</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>544.8332927582306</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510595</v>
+        <v>69.86306410510598</v>
       </c>
       <c r="K25" t="n">
         <v>230.3323070363593</v>
       </c>
       <c r="L25" t="n">
-        <v>344.0420196622378</v>
+        <v>344.0420196622379</v>
       </c>
       <c r="M25" t="n">
-        <v>371.9180268855235</v>
+        <v>371.9180268855237</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595798</v>
+        <v>369.1415936595799</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6377777146795</v>
+        <v>326.6377777146796</v>
       </c>
       <c r="P25" t="n">
-        <v>259.2417186371501</v>
+        <v>259.2417186371502</v>
       </c>
       <c r="Q25" t="n">
         <v>102.6788860299334</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6208179396315</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O33" t="n">
-        <v>57.74979223202591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P39" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>90.0196696720401</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
